--- a/documentation/database structure.xlsx
+++ b/documentation/database structure.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18550" windowHeight="7720"/>
+    <workbookView windowWidth="19200" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="139">
   <si>
     <t>Personal Information</t>
   </si>
@@ -306,6 +307,144 @@
   </si>
   <si>
     <t>Year Graduation</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>bigint(20)</t>
+  </si>
+  <si>
+    <t>personnel_id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>relationship_type</t>
+  </si>
+  <si>
+    <t>enum(Father, Mother, Sibling, Spouse, Child)</t>
+  </si>
+  <si>
+    <t>givenname</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>middlename</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>contact_number</t>
+  </si>
+  <si>
+    <t>church_duties</t>
+  </si>
+  <si>
+    <t>livelihood</t>
+  </si>
+  <si>
+    <t>local_congregation</t>
+  </si>
+  <si>
+    <t>district_id</t>
+  </si>
+  <si>
+    <t>date_of_marriage</t>
+  </si>
+  <si>
+    <t>place_of_marriage</t>
+  </si>
+  <si>
+    <t>minister_officiated</t>
+  </si>
+  <si>
+    <t>employment_type</t>
+  </si>
+  <si>
+    <t>enum(Self-employed, Employed, Government, Private)</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>varchar(150)</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>reason_for_leaving</t>
+  </si>
+  <si>
+    <t>education_level</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>start_year</t>
+  </si>
+  <si>
+    <t>completion_year</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>field_of_study</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>professional_licensure_examination</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>updated_at</t>
   </si>
 </sst>
 </file>
@@ -313,10 +452,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -673,12 +812,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -785,16 +939,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,7 +957,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,34 +969,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,8 +1081,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1203,56 +1367,56 @@
   <sheetPr/>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="9" width="22.8363636363636"/>
-    <col min="10" max="10" width="30.8727272727273"/>
-    <col min="11" max="11" width="18.2818181818182"/>
-    <col min="12" max="12" width="12.5636363636364"/>
-    <col min="13" max="13" width="17.3272727272727"/>
-    <col min="14" max="14" width="19.2727272727273" customWidth="1"/>
-    <col min="15" max="15" width="13.6363636363636" customWidth="1"/>
+    <col min="1" max="9" width="22.8380952380952"/>
+    <col min="10" max="10" width="30.8761904761905"/>
+    <col min="11" max="11" width="18.2857142857143"/>
+    <col min="12" max="12" width="12.5619047619048"/>
+    <col min="13" max="13" width="17.3238095238095"/>
+    <col min="14" max="14" width="19.2761904761905" customWidth="1"/>
+    <col min="15" max="15" width="13.6380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1263,7 +1427,7 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
@@ -1290,16 +1454,16 @@
       <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1351,7 +1515,7 @@
       <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C4" t="s">
@@ -1433,7 +1597,7 @@
       <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E6" t="s">
@@ -1561,7 +1725,7 @@
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1596,7 +1760,7 @@
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1631,7 +1795,7 @@
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1645,4 +1809,305 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E1:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="5" max="5" width="17.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="40.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="5:6">
+      <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="5:6">
+      <c r="E2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="5:6">
+      <c r="E3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="5:6">
+      <c r="E4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="5:6">
+      <c r="E5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="5:6">
+      <c r="E6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="5:6">
+      <c r="E7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="5:6">
+      <c r="E8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="5:6">
+      <c r="E9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="5:6">
+      <c r="E10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="5:6">
+      <c r="E11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="5:6">
+      <c r="E12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="5:6">
+      <c r="E13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="5:6">
+      <c r="E14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="5:6">
+      <c r="E15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="5:6">
+      <c r="E16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="5:6">
+      <c r="E17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="5:6">
+      <c r="E18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="5:6">
+      <c r="E19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="5:6">
+      <c r="E20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="5:6">
+      <c r="E21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="5:6">
+      <c r="E22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="5:6">
+      <c r="E23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="5:6">
+      <c r="E24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="5:6">
+      <c r="E25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6">
+      <c r="E30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6">
+      <c r="E31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6">
+      <c r="E32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6">
+      <c r="E34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="E35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/documentation/database structure.xlsx
+++ b/documentation/database structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="139">
   <si>
     <t>Personal Information</t>
   </si>
@@ -1081,13 +1081,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1367,8 +1364,8 @@
   <sheetPr/>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I2:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1383,40 +1380,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1427,7 +1424,7 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
@@ -1454,16 +1451,16 @@
       <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1515,7 +1512,7 @@
       <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C4" t="s">
@@ -1597,7 +1594,7 @@
       <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E6" t="s">
@@ -1635,6 +1632,9 @@
       <c r="C7" t="s">
         <v>71</v>
       </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
       <c r="J7" t="s">
         <v>72</v>
       </c>
@@ -1661,6 +1661,9 @@
       <c r="C8" t="s">
         <v>77</v>
       </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
       <c r="J8" t="s">
         <v>78</v>
       </c>
@@ -1725,7 +1728,7 @@
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1760,7 +1763,7 @@
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1795,7 +1798,7 @@
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1816,7 +1819,7 @@
   <sheetPr/>
   <dimension ref="E1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -1971,10 +1974,10 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="5:6">
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2083,7 +2086,7 @@
       </c>
     </row>
     <row r="33" spans="5:6">
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F33" s="1" t="s">
